--- a/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CB30AF-5AA6-44EA-89BD-59AEED05A842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C4992-54CA-41FA-9188-BC4C1F76F22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C21AA55C-E796-4F8A-9202-23D9572ABF70}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C21AA55C-E796-4F8A-9202-23D9572ABF70}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>编号</t>
   </si>
@@ -100,26 +100,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>MaxScore</t>
-  </si>
-  <si>
-    <t>中等</t>
-  </si>
-  <si>
-    <t>难</t>
-  </si>
-  <si>
-    <t>极难</t>
-  </si>
-  <si>
-    <t>标准</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最易</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,7 +120,115 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[int16,int16]</t>
+    <t>[int16]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木剑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIWidth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIHeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TexturePath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodenSword</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;0;0;1;0;1;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤蔓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThornWhip</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;1;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeatherBag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四格背包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FannyPack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;2;0;0;2;1;2;0;2;1;1;2;0;2;2;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlyAgaric</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;2;0;2;1;2;2;1;2;0;2;0;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +294,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -302,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,9 +428,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,6 +442,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,194 +808,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="11"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="11">
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>45</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>46</v>
-      </c>
-      <c r="D6" s="11">
-        <v>55</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="10"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11">
-        <v>56</v>
-      </c>
-      <c r="D7" s="11">
-        <v>65</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="11">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
-        <v>66</v>
-      </c>
-      <c r="D8" s="11">
-        <v>85</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11">
-        <v>86</v>
-      </c>
-      <c r="D9" s="11">
-        <v>100</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="D1">
     <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1 E4">
+  <conditionalFormatting sqref="J1 J4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,E1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,J1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="J2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,E2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,J2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\admin\Desktop\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344C4992-54CA-41FA-9188-BC4C1F76F22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E929A8F-A551-4F2A-9473-9F6218F1248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2115" yWindow="3045" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,14 +77,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>区间（最大值）</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -112,18 +109,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ItemGridType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PropType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[int16]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1;1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -136,10 +121,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>木剑</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -152,26 +133,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Width</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Height</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIWidth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIHeight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TexturePath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>WoodenSword</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -228,7 +189,123 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;2;0;2;1;2;2;1;2;0;2;0;</t>
+    <t>UI宽度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI高度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力消耗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发间隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;6</t>
+  </si>
+  <si>
+    <t>1;7</t>
+  </si>
+  <si>
+    <t>1;8</t>
+  </si>
+  <si>
+    <t>1;9</t>
+  </si>
+  <si>
+    <t>0;2;0;2;1;2;2;1;2;0;2;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>propType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemGridType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uIWidth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uIHeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>texturePath</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[int32]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,9 +484,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -448,6 +522,12 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -819,314 +899,469 @@
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
+    <col min="4" max="4" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="15.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="L1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9">
+        <v>2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3</v>
+      </c>
+      <c r="L6" s="9">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9">
+        <v>3</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="9">
+        <v>4</v>
+      </c>
+      <c r="K9" s="9">
+        <v>4</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="9">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="J10" s="9">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K10" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>2</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="10">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>2</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="10">
-        <v>3</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10">
-        <v>3</v>
-      </c>
-      <c r="H6" s="10">
-        <v>3</v>
-      </c>
-      <c r="I6" s="11" t="s">
+      <c r="L10" s="9">
+        <v>1</v>
+      </c>
+      <c r="M10" s="9">
+        <v>2</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>4</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="10">
-        <v>4</v>
-      </c>
-      <c r="F9" s="10">
-        <v>4</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>2</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="10"/>
+      <c r="O10" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1136,22 +1371,22 @@
   <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="D1:I1">
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1 J4">
+  <conditionalFormatting sqref="O1 O4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,J1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,O1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2">
+  <conditionalFormatting sqref="O2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,J2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,O2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\admin\Desktop\Excel\plan\excel\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E929A8F-A551-4F2A-9473-9F6218F1248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB9442-6E91-4744-B038-34441266DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2115" yWindow="3045" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1;1;0;0;1;0;1;1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>藤蔓</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -306,6 +302,10 @@
   </si>
   <si>
     <t>[int32]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1;0;0;1;0;0;1;1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +891,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F16" activeCellId="1" sqref="D6 F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -923,19 +923,19 @@
         <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>13</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>1</v>
@@ -967,22 +967,22 @@
         <v>2</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>2</v>
@@ -1014,19 +1014,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>4</v>
@@ -1053,43 +1053,43 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>57</v>
       </c>
       <c r="O4" s="8"/>
     </row>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
@@ -1143,13 +1143,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E6" s="10">
         <v>2</v>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="9">
         <v>3</v>
@@ -1179,7 +1179,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" s="10"/>
     </row>
@@ -1188,43 +1188,43 @@
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="9">
         <v>0</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>2</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2</v>
-      </c>
-      <c r="L7" s="9">
-        <v>2</v>
-      </c>
-      <c r="M7" s="9">
-        <v>2</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="O7" s="9"/>
     </row>
@@ -1233,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" s="9"/>
     </row>
@@ -1278,13 +1278,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="9">
         <v>4</v>
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9" s="9"/>
     </row>
@@ -1323,13 +1323,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="9"/>
     </row>

--- a/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECB9442-6E91-4744-B038-34441266DC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F93B651-B7AA-4979-BDA1-56BDA8EBBCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>编号</t>
   </si>
@@ -225,13 +225,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1;5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;6</t>
-  </si>
-  <si>
     <t>1;7</t>
   </si>
   <si>
@@ -306,6 +299,18 @@
   </si>
   <si>
     <t>1;1;0;0;1;0;0;1;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -891,7 +896,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" activeCellId="1" sqref="D6 F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1014,19 +1019,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>7</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>4</v>
@@ -1053,43 +1058,43 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>54</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="O4" s="8"/>
     </row>
@@ -1110,16 +1115,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="10">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G5" s="10">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I5" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="9">
         <v>1</v>
@@ -1149,22 +1154,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F6" s="10">
+        <v>80</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="I6" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J6" s="9">
         <v>3</v>
@@ -1206,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="9">
         <v>2</v>
@@ -1251,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="9">
         <v>2</v>
@@ -1287,19 +1292,19 @@
         <v>25</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G9" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="9">
         <v>4</v>
@@ -1329,19 +1334,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
       </c>
       <c r="F10" s="10">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G10" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I10" s="9">
         <v>3</v>

--- a/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F93B651-B7AA-4979-BDA1-56BDA8EBBCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F2E15-9E14-4A41-8C79-F30D8B861A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,20 +38,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-Bag = 0,
-Weapon = 1,
-Fruits = 2,</t>
+          <t>Bag = 0,
+MeleeWeapon = 1,
+RangedWeapon = 2,
+Food = 3,
+Accessory = 4,               //配饰
+GemStone = 5,                //宝石
+Pet = 6,                     //宠物
+Potion = 7,                  //药水
+Card = 8,                    //卡牌
+Shield = 9,                  //盾牌
+Glove = 10,                  //手套</t>
         </r>
       </text>
     </comment>
@@ -77,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>编号</t>
   </si>
@@ -311,6 +308,54 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星目标类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TarStarType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星目标类型除外</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExTarStarId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铲铲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shovel_item</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨刀石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;1;2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whetstone</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,13 +399,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -479,7 +517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,10 +560,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,6 +571,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -910,11 +954,11 @@
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="15.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="10" max="16" width="15.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -949,19 +993,25 @@
         <v>14</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -992,23 +1042,29 @@
       <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>2</v>
+      <c r="K2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1042,18 +1098,24 @@
       <c r="K3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1088,17 +1150,23 @@
         <v>51</v>
       </c>
       <c r="L4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1133,17 +1201,23 @@
         <v>2</v>
       </c>
       <c r="L5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="9">
         <v>1</v>
       </c>
-      <c r="M5" s="9">
-        <v>2</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="9">
+        <v>2</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1178,17 +1252,23 @@
         <v>3</v>
       </c>
       <c r="L6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="9">
         <v>3</v>
       </c>
-      <c r="M6" s="9">
+      <c r="O6" s="9">
         <v>3</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1205,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>38</v>
@@ -1223,17 +1303,23 @@
         <v>2</v>
       </c>
       <c r="L7" s="9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M7" s="9">
-        <v>2</v>
-      </c>
-      <c r="N7" s="10" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="9">
+        <v>2</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1250,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>39</v>
@@ -1268,17 +1354,23 @@
         <v>1</v>
       </c>
       <c r="L8" s="9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="9">
+        <v>2</v>
+      </c>
+      <c r="O8" s="9">
         <v>1</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="P8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1286,7 +1378,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>25</v>
@@ -1313,17 +1405,23 @@
         <v>4</v>
       </c>
       <c r="L9" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="9">
-        <v>2</v>
-      </c>
-      <c r="N9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1331,7 +1429,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>41</v>
@@ -1358,15 +1456,126 @@
         <v>4</v>
       </c>
       <c r="L10" s="9">
+        <v>3</v>
+      </c>
+      <c r="M10" s="9">
+        <v>6</v>
+      </c>
+      <c r="N10" s="9">
         <v>1</v>
       </c>
-      <c r="M10" s="9">
-        <v>2</v>
-      </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="9">
+        <v>2</v>
+      </c>
+      <c r="P10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>95</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1379,19 +1588,19 @@
   <conditionalFormatting sqref="D1:I1">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1 O4">
+  <conditionalFormatting sqref="Q1 Q4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,O1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,Q1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
+  <conditionalFormatting sqref="Q2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,O2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,Q2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7F2E15-9E14-4A41-8C79-F30D8B861A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A06D7D8-D7F2-4C98-A110-E3295635DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27390" yWindow="1905" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -69,12 +69,172 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{FDC46289-A1DC-4939-B0BB-8C8D9AB5260C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.自身物品 
+2.玩家自己
+3.对手玩家
+4.星物品
+5.方块物品
+6.本场游戏 
+7.包内物品</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0CAFA225-C614-4D1D-8F41-9BFBC83B58F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.攻击时 
+2.未命中时 
+3.命中时 
+4.激活时 
+5.获得n层b时 
+6.生命值低于n时 
+7.拥有n层b时 
+8.战斗开始 
+9.战斗触发n次 
+10.每n秒 
+11.进入xx状态
+12.进入商店
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{EF620122-A4D7-4C94-BAA6-ECC7EE105EB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:
+根据前一个监听类型来设置不同的值</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类型 1 2 3 4 
+1.概率
+类型5
+[3,1] 三层 充能 [-1,1] n 层充能
+类型6
+1.百分比 50
+类型7 
+[3,1] 同类型5 
+类型8
+gameState
+类型9
+n 次数
+类型10 
+n 秒
+类型11
+状态Id
+类型12
+概率
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1DCA3BB7-A19C-41FC-9880-1438EA340F67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+buffID
+1.充能
+2.狂热
+3.幸运
+4.魔法
+5.回复
+6.尖刺
+7.吸血
+8.致盲
+9.冰冷
+10.中毒
+11.护盾
+12.治疗
+13.疲惫
+14.无敌
+15.无效 : 放置获得增益
+16.反弹
+17.复活
+19.抵挡:放置获得减益
+20.眩晕:暂停所有物品冷却时间</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
   <si>
     <t>编号</t>
   </si>
@@ -327,18 +487,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>铲铲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4;7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shovel_item</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>磨刀石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -356,6 +504,150 @@
   </si>
   <si>
     <t>Whetstone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Broom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>木盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodenBuckler</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听对象</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenTarget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听数值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>listenValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectDes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对手攻击落空:下一次攻击获得+2点伤害加成。 击中对手:将有35%的几率施加1层Blind。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加4格背包槽位。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时:Star的武器攻击力+1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击(近战):将有35%的几率减免4点伤害并移除对手0.3点耐力。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5s:治愈4点生命和1点耐力。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每5s:施加1层Poison。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中对手时:获得1层Spikes。每层Spikes造成+1额外伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加2格背包槽位。 包内的物品触发快10%。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;-1;6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;35</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时:获得1层Heat。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8;7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时机效果对应关系</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectOfListen</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +655,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,12 +666,14 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -424,6 +718,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -517,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +884,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -954,11 +1270,16 @@
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="16" width="15.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
+    <col min="10" max="17" width="15.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="59.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -974,7 +1295,7 @@
       <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -995,23 +1316,41 @@
       <c r="L1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="21" t="s">
         <v>63</v>
       </c>
       <c r="N1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="S1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="U1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1051,20 +1390,38 @@
       <c r="M2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="N2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1104,18 +1461,36 @@
       <c r="M3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="7"/>
+      <c r="V3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1156,17 +1531,35 @@
         <v>64</v>
       </c>
       <c r="N4" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="U4" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1207,17 +1600,35 @@
         <v>-1</v>
       </c>
       <c r="N5" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>2</v>
-      </c>
-      <c r="P5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1</v>
+      </c>
+      <c r="T5" s="9">
+        <v>2</v>
+      </c>
+      <c r="U5" s="9"/>
+      <c r="V5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="10"/>
+      <c r="W5" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1257,18 +1668,38 @@
       <c r="M6" s="9">
         <v>-1</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="9">
         <v>3</v>
       </c>
-      <c r="O6" s="9">
+      <c r="T6" s="9">
         <v>3</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="U6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="W6" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1309,17 +1740,37 @@
         <v>-1</v>
       </c>
       <c r="N7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>2</v>
-      </c>
-      <c r="P7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>2</v>
+      </c>
+      <c r="T7" s="9">
+        <v>2</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="9"/>
+      <c r="W7" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1360,17 +1811,37 @@
         <v>-1</v>
       </c>
       <c r="N8" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O8" s="9">
-        <v>1</v>
-      </c>
-      <c r="P8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>3</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9">
+        <v>2</v>
+      </c>
+      <c r="T8" s="9">
+        <v>1</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="V8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="9"/>
+      <c r="W8" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1411,17 +1882,37 @@
         <v>5</v>
       </c>
       <c r="N9" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O9" s="9">
-        <v>2</v>
-      </c>
-      <c r="P9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="R9" s="10">
+        <v>2</v>
+      </c>
+      <c r="S9" s="9">
+        <v>2</v>
+      </c>
+      <c r="T9" s="9">
+        <v>2</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="V9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="9"/>
+      <c r="W9" s="10" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1461,23 +1952,43 @@
       <c r="M10" s="9">
         <v>6</v>
       </c>
-      <c r="N10" s="9">
-        <v>1</v>
-      </c>
-      <c r="O10" s="9">
-        <v>2</v>
-      </c>
-      <c r="P10" s="10" t="s">
+      <c r="N10" s="10">
+        <v>6</v>
+      </c>
+      <c r="O10" s="10">
+        <v>10</v>
+      </c>
+      <c r="P10" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>6</v>
+      </c>
+      <c r="R10" s="10">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1</v>
+      </c>
+      <c r="T10" s="9">
+        <v>2</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="9"/>
+      <c r="W10" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1492,13 +2003,13 @@
         <v>95</v>
       </c>
       <c r="G11" s="1">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -1512,28 +2023,49 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="N11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="19">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
         <v>4</v>
       </c>
-      <c r="P11" s="19" t="s">
-        <v>67</v>
+      <c r="U11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1545,7 +2077,7 @@
         <v>-1</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1">
         <v>4</v>
@@ -1557,25 +2089,186 @@
         <v>3</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M12" s="1">
         <v>-1</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O12" s="1">
+        <v>8</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>9</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1">
         <v>3</v>
       </c>
-      <c r="P12" s="19" t="s">
-        <v>72</v>
+      <c r="U12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="W12" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
+      <c r="B13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="19">
+        <v>6</v>
+      </c>
+      <c r="O13" s="19">
+        <v>8</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>12</v>
+      </c>
+      <c r="R13" s="19">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="51" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="19">
+        <v>2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2</v>
+      </c>
+      <c r="T14" s="1">
+        <v>2</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="23:23" x14ac:dyDescent="0.15">
+      <c r="W22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1588,19 +2281,19 @@
   <conditionalFormatting sqref="D1:I1">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1 Q4">
+  <conditionalFormatting sqref="W1 W4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,Q1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,W1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2">
+  <conditionalFormatting sqref="W2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,Q2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,W2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A06D7D8-D7F2-4C98-A110-E3295635DF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81CA77-F2EC-4C02-B385-5757CD566FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27390" yWindow="1905" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32355" yWindow="1380" windowWidth="25710" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,122 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{FDC46289-A1DC-4939-B0BB-8C8D9AB5260C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.自身物品 
-2.玩家自己
-3.对手玩家
-4.星物品
-5.方块物品
-6.本场游戏 
-7.包内物品</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0CAFA225-C614-4D1D-8F41-9BFBC83B58F9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1.攻击时 
-2.未命中时 
-3.命中时 
-4.激活时 
-5.获得n层b时 
-6.生命值低于n时 
-7.拥有n层b时 
-8.战斗开始 
-9.战斗触发n次 
-10.每n秒 
-11.进入xx状态
-12.进入商店
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{EF620122-A4D7-4C94-BAA6-ECC7EE105EB3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:
-根据前一个监听类型来设置不同的值</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-类型 1 2 3 4 
-1.概率
-类型5
-[3,1] 三层 充能 [-1,1] n 层充能
-类型6
-1.百分比 50
-类型7 
-[3,1] 同类型5 
-类型8
-gameState
-类型9
-n 次数
-类型10 
-n 秒
-类型11
-状态Id
-类型12
-概率
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1DCA3BB7-A19C-41FC-9880-1438EA340F67}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{1DCA3BB7-A19C-41FC-9880-1438EA340F67}">
       <text>
         <r>
           <rPr>
@@ -229,12 +114,40 @@
         </r>
       </text>
     </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{CF4D42DC-B0B5-481A-AAA1-705786EEDC24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+第 i 个时机 对应几个效果
+香蕉
+时机[4] 效果 [4;5] 对应关系为 [2] 就是 香蕉一个时机4 对应两个效果 4 5</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t>编号</t>
   </si>
@@ -535,38 +448,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>监听对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>listenTarget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>效果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>监听类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>listenType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>监听数值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>listenValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>效果描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -607,26 +492,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2;3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EffectId</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>100;-1;6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3;1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100;35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗开始时:获得1层Heat。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -648,6 +517,21 @@
   </si>
   <si>
     <t>EffectOfListen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时机id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>5;7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +777,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1270,16 +1160,16 @@
     <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
-    <col min="10" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="59.25" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1"/>
+    <col min="10" max="15" width="15.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="59.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1319,38 +1209,32 @@
       <c r="M1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="S1" s="14" t="s">
+      <c r="P1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="R1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>78</v>
+      </c>
       <c r="T1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="V1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1390,20 +1274,20 @@
       <c r="M2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>2</v>
@@ -1411,17 +1295,11 @@
       <c r="T2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1464,33 +1342,27 @@
       <c r="N3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="7"/>
+      <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1530,36 +1402,30 @@
       <c r="M4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>81</v>
+      <c r="N4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>52</v>
       </c>
+      <c r="R4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="T4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="U4" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="V4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="8"/>
+      <c r="U4" s="8"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1609,26 +1475,20 @@
         <v>0</v>
       </c>
       <c r="Q5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="9">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9">
-        <v>1</v>
-      </c>
-      <c r="T5" s="9">
-        <v>2</v>
-      </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="U5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1668,38 +1528,32 @@
       <c r="M6" s="9">
         <v>-1</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="P6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="9">
+      <c r="Q6" s="9">
         <v>3</v>
       </c>
-      <c r="T6" s="9">
+      <c r="R6" s="9">
         <v>3</v>
       </c>
+      <c r="S6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="U6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="W6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1749,28 +1603,22 @@
         <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>2</v>
-      </c>
-      <c r="T7" s="9">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1811,37 +1659,31 @@
         <v>-1</v>
       </c>
       <c r="N8" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O8" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P8" s="9">
         <v>1</v>
       </c>
       <c r="Q8" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8" s="9">
         <v>1</v>
       </c>
-      <c r="S8" s="9">
-        <v>2</v>
-      </c>
-      <c r="T8" s="9">
-        <v>1</v>
+      <c r="S8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1882,37 +1724,31 @@
         <v>5</v>
       </c>
       <c r="N9" s="9">
-        <v>6</v>
-      </c>
-      <c r="O9" s="9">
-        <v>10</v>
-      </c>
-      <c r="P9" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="R9" s="10">
-        <v>2</v>
-      </c>
-      <c r="S9" s="9">
-        <v>2</v>
-      </c>
-      <c r="T9" s="9">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>2</v>
+      </c>
+      <c r="R9" s="9">
+        <v>2</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="W9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1952,38 +1788,32 @@
       <c r="M10" s="9">
         <v>6</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
+        <v>5</v>
+      </c>
+      <c r="O10" s="10">
         <v>6</v>
       </c>
-      <c r="O10" s="10">
-        <v>10</v>
-      </c>
       <c r="P10" s="10">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>6</v>
-      </c>
-      <c r="R10" s="10">
-        <v>1</v>
-      </c>
-      <c r="S10" s="9">
-        <v>1</v>
-      </c>
-      <c r="T10" s="9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9">
+        <v>2</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -2023,38 +1853,32 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="24" t="s">
         <v>98</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="R11" s="19">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
         <v>4</v>
       </c>
+      <c r="S11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="U11" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="W11" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -2094,38 +1918,32 @@
       <c r="M12" s="1">
         <v>-1</v>
       </c>
-      <c r="N12" s="1">
-        <v>4</v>
+      <c r="N12" s="23">
+        <v>3</v>
       </c>
       <c r="O12" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
         <v>3</v>
       </c>
+      <c r="S12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="U12" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="W12" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -2165,38 +1983,32 @@
       <c r="M13" s="1">
         <v>-1</v>
       </c>
-      <c r="N13" s="19">
-        <v>6</v>
+      <c r="N13" s="23">
+        <v>3</v>
       </c>
       <c r="O13" s="19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P13" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>12</v>
-      </c>
-      <c r="R13" s="19">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="51" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -2236,39 +2048,33 @@
       <c r="M14" s="1">
         <v>-1</v>
       </c>
-      <c r="N14" s="1">
-        <v>3</v>
-      </c>
-      <c r="O14" s="1">
-        <v>3</v>
-      </c>
-      <c r="P14" s="1">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="R14" s="19">
-        <v>2</v>
-      </c>
-      <c r="S14" s="1">
-        <v>2</v>
-      </c>
-      <c r="T14" s="1">
-        <v>2</v>
+      <c r="N14" s="23">
+        <v>6</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>2</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2</v>
+      </c>
+      <c r="S14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="W14" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="23:23" x14ac:dyDescent="0.15">
-      <c r="W22" s="19"/>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.15">
+      <c r="U22" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2281,19 +2087,19 @@
   <conditionalFormatting sqref="D1:I1">
     <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1 W4">
+  <conditionalFormatting sqref="U1 U4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,W1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,U1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2">
+  <conditionalFormatting sqref="U2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,W2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,U2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
+++ b/Project/Tools/Excel/tool/excel2buffers/excel/Common/TablePropItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81CA77-F2EC-4C02-B385-5757CD566FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C727AB1-CE80-44E5-865C-BE9C222424BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32355" yWindow="1380" windowWidth="25710" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24210" yWindow="1515" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,12 +777,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1853,7 +1847,7 @@
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="24" t="s">
+      <c r="N11" s="19" t="s">
         <v>98</v>
       </c>
       <c r="O11" s="19" t="s">
@@ -1918,7 +1912,7 @@
       <c r="M12" s="1">
         <v>-1</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="1">
         <v>3</v>
       </c>
       <c r="O12" s="1">
@@ -1983,7 +1977,7 @@
       <c r="M13" s="1">
         <v>-1</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="1">
         <v>3</v>
       </c>
       <c r="O13" s="19">
@@ -2048,7 +2042,7 @@
       <c r="M14" s="1">
         <v>-1</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="1">
         <v>6</v>
       </c>
       <c r="O14" s="19" t="s">
